--- a/Document/ProductName-HoaCa.xlsx
+++ b/Document/ProductName-HoaCa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Hinh Anh Chay Hoa Ca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A18E5A-6458-4C85-B7CC-5F2C3D8651C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F827D0-789A-4CB1-AD16-EFD4396C004E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="2" xr2:uid="{A9407308-5E89-47A8-B11F-33EC6B0F3C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" tabRatio="804" activeTab="5" xr2:uid="{A9407308-5E89-47A8-B11F-33EC6B0F3C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
   <si>
     <t>Ham thịt chay</t>
   </si>
@@ -485,21 +485,12 @@
     <t xml:space="preserve">Mi khong chien Newway sot </t>
   </si>
   <si>
-    <t>6,5</t>
-  </si>
-  <si>
     <t>Mi nosa 365 vi soup miso</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>mi chay lau thai Vifon</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>Chao duong sinh yen mach</t>
   </si>
   <si>
@@ -555,6 +546,84 @@
   </si>
   <si>
     <t>Danh mục</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>Há cảo chay Cầu Tre</t>
+  </si>
+  <si>
+    <t>Chả giò chay Cầu Tre</t>
+  </si>
+  <si>
+    <t>Chả giò rế chay đặc biệt</t>
+  </si>
+  <si>
+    <t>Rong biển ăn liền Bibigo</t>
+  </si>
+  <si>
+    <t>Chao bông mai lớn</t>
+  </si>
+  <si>
+    <t>Chao bông mai trung</t>
+  </si>
+  <si>
+    <t>Chao bông mai nhỏ</t>
+  </si>
+  <si>
+    <t>Chao trung VP</t>
+  </si>
+  <si>
+    <t>Chao nhỏ VP</t>
+  </si>
+  <si>
+    <t>Chao đại VP</t>
+  </si>
+  <si>
+    <t>Chao môn Dũ Phong trung</t>
+  </si>
+  <si>
+    <t>Chao môn Dũ Phong nhỏ</t>
+  </si>
+  <si>
+    <t>Chao môn VP trung</t>
+  </si>
+  <si>
+    <t>Chao đậu xanh vị tiêu</t>
+  </si>
+  <si>
+    <t>Chao đậu xanh vị ớt</t>
+  </si>
+  <si>
+    <t>Chao đỗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mì không chiên New way sốt </t>
+  </si>
+  <si>
+    <t>Mì nosa 365 vị soup miso</t>
+  </si>
+  <si>
+    <t>Mì chay lẫu thái Vifon</t>
+  </si>
+  <si>
+    <t>Cháo dưỡng sinh yến mạch</t>
+  </si>
+  <si>
+    <t>Rong biển Tịnh Hương</t>
+  </si>
+  <si>
+    <t>Canh đậu hủ rong biển</t>
+  </si>
+  <si>
+    <t>Nấm đông cô khô</t>
+  </si>
+  <si>
+    <t>Nấm mèo</t>
+  </si>
+  <si>
+    <t>Chân nấm đông cô</t>
   </si>
 </sst>
 </file>
@@ -596,10 +665,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,30 +987,30 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -964,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1045,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1056,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1067,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1078,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1089,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1100,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1111,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1122,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1133,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1144,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1155,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1166,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1107,9 +1177,9 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1118,7 +1188,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,16 +1221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B3B9D3-E863-4CF0-B586-B189E0D81D62}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1280,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1288,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1307,7 +1377,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1318,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1340,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1373,7 +1443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1487,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1439,7 +1509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1450,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1461,7 +1531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1483,7 +1553,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1504,15 +1574,15 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +1593,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1564,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1575,7 +1645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1586,7 +1656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1608,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1630,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1648,15 +1718,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1667,7 +1737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +1759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1722,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1733,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1744,7 +1814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1755,9 +1825,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1773,18 +1843,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7166B83A-DA11-4C59-9E03-E179A3F199D6}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1794,80 +1865,156 @@
       <c r="C1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT(C1,"000")</f>
+        <v>13000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(C2,"000")</f>
+        <v>11000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D37" si="0">_xlfn.CONCAT(C3,"000")</f>
+        <v>7000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
       <c r="C11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1877,8 +2024,15 @@
       <c r="C12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1888,8 +2042,15 @@
       <c r="C13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1899,148 +2060,296 @@
       <c r="C14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>145</v>
       </c>
       <c r="C19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>144</v>
       </c>
       <c r="C20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>141</v>
       </c>
       <c r="C22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>142</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>146</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
       <c r="C26">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>140</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>149</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>65</v>
+      </c>
+      <c r="D29" t="str">
+        <f>_xlfn.CONCAT(C29,"00")</f>
+        <v>6500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:D31" si="1">_xlfn.CONCAT(C30,"00")</f>
+        <v>4500</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>155</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
@@ -2048,38 +2357,66 @@
       <c r="C34">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <v>350</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37">
         <v>20</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2089,239 +2426,351 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0333B9D-A40A-45C8-849E-8BC125E9D36E}">
-  <dimension ref="A3:C30"/>
+  <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f>CONCATENATE(C3,"000")</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D30" si="0">CONCATENATE(C4,"000")</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="C7">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
       <c r="C17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
       <c r="C18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
       <c r="C19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
       <c r="C26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
       <c r="C27">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
       <c r="C30">
         <v>50</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -2331,191 +2780,345 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42929DCB-4E57-4F09-B742-B1DFF6FBAD05}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
       <c r="D2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>CONCATENATE(D2,"000")</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
       <c r="D3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F23" si="0">CONCATENATE(D3,"000")</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
       <c r="D4">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
       <c r="D5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
       <c r="D6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
       <c r="D7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
       <c r="D8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
       <c r="D9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
       <c r="D10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
       <c r="D11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
       <c r="D12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
       <c r="D13">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
       <c r="D14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
       <c r="D15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
       <c r="D16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>122</v>
       </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
       <c r="D17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
       <c r="D18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
       <c r="D19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
       <c r="D20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
       <c r="D21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
       <c r="D22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>128</v>
       </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
       <c r="D23">
         <v>50</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -2525,108 +3128,207 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF285D00-7D35-41A2-AE41-1C2804D32B0D}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
       <c r="D2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(D2,E2)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F14" si="0">CONCATENATE(D3,E3)</f>
+        <v>700-1tr000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
       <c r="D6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>70</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/ProductName-HoaCa.xlsx
+++ b/Document/ProductName-HoaCa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\iProjects\blogs\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F827D0-789A-4CB1-AD16-EFD4396C004E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBAE5A2-7055-4B5B-A648-E3BF17E8C2F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" tabRatio="804" activeTab="5" xr2:uid="{A9407308-5E89-47A8-B11F-33EC6B0F3C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" tabRatio="804" activeTab="5" xr2:uid="{A9407308-5E89-47A8-B11F-33EC6B0F3C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -990,13 +990,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1225,12 +1225,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1577,12 +1577,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1721,12 +1721,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -1849,13 +1849,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1918,13 +1918,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2257,13 +2257,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>159</v>
       </c>
@@ -2432,12 +2432,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2786,12 +2786,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -3134,14 +3134,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>700-1tr000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
         <v>171</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>165</v>
       </c>
